--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H2">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.13283774514188</v>
+        <v>3.319612666666667</v>
       </c>
       <c r="N2">
-        <v>3.13283774514188</v>
+        <v>9.958838</v>
       </c>
       <c r="O2">
-        <v>0.2136170562772816</v>
+        <v>0.1773188829476472</v>
       </c>
       <c r="P2">
-        <v>0.2136170562772816</v>
+        <v>0.2112475282640173</v>
       </c>
       <c r="Q2">
-        <v>4.205765389721333</v>
+        <v>5.334830010544</v>
       </c>
       <c r="R2">
-        <v>4.205765389721333</v>
+        <v>48.013470094896</v>
       </c>
       <c r="S2">
-        <v>0.2136170562772816</v>
+        <v>0.1773188829476472</v>
       </c>
       <c r="T2">
-        <v>0.2136170562772816</v>
+        <v>0.2112475282640173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H3">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11681607601028</v>
+        <v>1.225632666666667</v>
       </c>
       <c r="N3">
-        <v>1.11681607601028</v>
+        <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.07615171354801729</v>
+        <v>0.0654678232613522</v>
       </c>
       <c r="P3">
-        <v>0.07615171354801729</v>
+        <v>0.07799460280194422</v>
       </c>
       <c r="Q3">
-        <v>1.499300883504806</v>
+        <v>1.969670135824</v>
       </c>
       <c r="R3">
-        <v>1.499300883504806</v>
+        <v>17.727031222416</v>
       </c>
       <c r="S3">
-        <v>0.07615171354801729</v>
+        <v>0.0654678232613522</v>
       </c>
       <c r="T3">
-        <v>0.07615171354801729</v>
+        <v>0.07799460280194422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H4">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.949033936179711</v>
+        <v>2.216913333333333</v>
       </c>
       <c r="N4">
-        <v>0.949033936179711</v>
+        <v>6.65074</v>
       </c>
       <c r="O4">
-        <v>0.06471124655859577</v>
+        <v>0.1184176093210107</v>
       </c>
       <c r="P4">
-        <v>0.06471124655859577</v>
+        <v>0.1410759353778654</v>
       </c>
       <c r="Q4">
-        <v>1.274057071307046</v>
+        <v>3.56272160912</v>
       </c>
       <c r="R4">
-        <v>1.274057071307046</v>
+        <v>32.06449448208</v>
       </c>
       <c r="S4">
-        <v>0.06471124655859577</v>
+        <v>0.1184176093210107</v>
       </c>
       <c r="T4">
-        <v>0.06471124655859577</v>
+        <v>0.1410759353778654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H5">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.825620425196226</v>
+        <v>2.938529666666666</v>
       </c>
       <c r="N5">
-        <v>0.825620425196226</v>
+        <v>8.815588999999999</v>
       </c>
       <c r="O5">
-        <v>0.05629611846521854</v>
+        <v>0.1569631310405457</v>
       </c>
       <c r="P5">
-        <v>0.05629611846521854</v>
+        <v>0.1869968550991049</v>
       </c>
       <c r="Q5">
-        <v>1.108377162118251</v>
+        <v>4.722405240232</v>
       </c>
       <c r="R5">
-        <v>1.108377162118251</v>
+        <v>42.501647162088</v>
       </c>
       <c r="S5">
-        <v>0.05629611846521854</v>
+        <v>0.1569631310405457</v>
       </c>
       <c r="T5">
-        <v>0.05629611846521854</v>
+        <v>0.1869968550991049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H6">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.64136411788671</v>
+        <v>9.020457499999999</v>
       </c>
       <c r="N6">
-        <v>8.64136411788671</v>
+        <v>18.040915</v>
       </c>
       <c r="O6">
-        <v>0.5892238651508868</v>
+        <v>0.4818325534294442</v>
       </c>
       <c r="P6">
-        <v>0.5892238651508868</v>
+        <v>0.3826850784570683</v>
       </c>
       <c r="Q6">
-        <v>11.60084022332341</v>
+        <v>14.49645251178</v>
       </c>
       <c r="R6">
-        <v>11.60084022332341</v>
+        <v>86.97871507068</v>
       </c>
       <c r="S6">
-        <v>0.5892238651508868</v>
+        <v>0.4818325534294442</v>
       </c>
       <c r="T6">
-        <v>0.5892238651508868</v>
+        <v>0.3826850784570683</v>
       </c>
     </row>
   </sheetData>
